--- a/0_data/8_predictions/original_data_evaluation.xlsx
+++ b/0_data/8_predictions/original_data_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,47 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1_short_small_50</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2_short_medium_50</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3_short_large_50</t>
+          <t>a3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4_middle_small_50</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5_middle_medium_50</t>
+          <t>c</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6_middle_large_50</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>7_long_small_50</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>8_long_medium_50</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>9_long_large_50</t>
+          <t>d</t>
         </is>
       </c>
     </row>
@@ -487,31 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.800000000000001</v>
+        <v>11.45</v>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>11.45</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2</v>
+        <v>11.45</v>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>11.31</v>
       </c>
       <c r="F2" t="n">
-        <v>10.8</v>
+        <v>11.19</v>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>18</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="C3" t="n">
-        <v>3.19</v>
+        <v>3.44</v>
       </c>
       <c r="D3" t="n">
-        <v>4.07</v>
+        <v>3.43</v>
       </c>
       <c r="E3" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="F3" t="n">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="G3" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.61</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.6</v>
+        <v>18.49</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>18.49</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>18.49</v>
       </c>
       <c r="E4" t="n">
-        <v>20.8</v>
+        <v>18.5</v>
       </c>
       <c r="F4" t="n">
-        <v>19.4</v>
+        <v>17.99</v>
       </c>
       <c r="G4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.4</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.52</v>
+        <v>6.05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.69</v>
+        <v>6.05</v>
       </c>
       <c r="D5" t="n">
-        <v>10.25</v>
+        <v>6.03</v>
       </c>
       <c r="E5" t="n">
-        <v>5.37</v>
+        <v>6.05</v>
       </c>
       <c r="F5" t="n">
-        <v>6.5</v>
+        <v>6.03</v>
       </c>
       <c r="G5" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -623,30 +572,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -657,31 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="n">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
-        <v>5.48</v>
+        <v>2.38</v>
       </c>
       <c r="E7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="F7" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="G7" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.77</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8">
@@ -692,56 +623,49 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[ 80  35 126  32  10  23   0  12   0   6   1   0   1   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
+   1572    126   2557     12    191     81     18     64      0      8
+      2      2      2      3      3      0      0      1      3      0
+      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[ 93  16 134  53  15  20   0  11   2   4   1   0   3   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
+   1572    126   2557     12    191     81     18     64      0      8
+      2      2      2      3      3      0      0      1      3      0
+      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[49  8 54 31 27 57  0 46 10 27 18  4 16  1  7  4  0  2  0  6  0  1  0  0
-  1  0  0  0  0  0  0  0  0  0  0  0]</t>
+          <t>[ 73971  24890 109687  42472  11621  20319    175  12738   2895   3902
+   1572    126   2557     12    191     81     18     64      0      8
+      2      2      2      3      3      0      0      1      3      0
+      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[358  57 456 205  61 116   0  35   8  10   9   0   3   0   1   0   2   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[ 66573  23161 102725  39778  10810  18821    162  12048   2743   3687
+   1472    106   2361     12    174     67     17     62      0      8
+      2      1      2      3      3      0      0      1      3      0
+      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[282  20 543 258  23  97   0  55   9  11   7   2  16   0   1   0   0   1
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[ 69361  23377 104381  40565  10902  19328    166  12021   2748   3620
+   1455    121   2374      9    183     71     14     42      0      4
+      0      1      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[197  37 255 163 105 226  14 209  44  77  43  13  39   3  11   7   2   1
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[603 157 785 375 177 309   1 180  22  57  32   8  26   0   1   2   3   1
-   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[634  49 886 435 101 240   2 171  20  39  25   4  35   2   5   2   0   1
-   0   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[624 214 803 353 183 285  13 133  24  44  25   5  28   5   9   5   1   1
-   0   1   1   1   0   0   0   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[65103 21371 96282 38016 10573 18469   172 11444  2615  3425  1377   106
+  2142     9   166    57    13    40     0     4     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0]</t>
         </is>
       </c>
     </row>
@@ -753,47 +677,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[66  0 59  0 52 19  0 66  0 44  0 25]</t>
+          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[55  0 67  0 91 13  0 65  0 62  0  4]</t>
+          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[67  0 66  0 85 10  0 69  0 55  0 22]</t>
+          <t>[27138 22757 28886 24619 27493 25901 23838 29225 21877 27314 22786 26383]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[256   3 247   0 214   4   2 206   0 287   0 107]</t>
+          <t>[52432  1068 49650   912 55359 11314  1268 45051  1259 48021   719 18594]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[183   0 260   0 264   1   0 256   0 320   0  46]</t>
+          <t>[25712 21412 27214 23076 26326 24545 22647 27712 20465 26002 21417 25073]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[266   2 270   2 279  55   4 255   2 238   2  76]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>[502   5 533   1 490  47  50 394   0 476   0 247]</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[362 103 520  59 458  61   8 393  81 447  88  77]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[515  15 573  20 568 114  11 362  10 403   8 164]</t>
+          <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
         </is>
       </c>
     </row>
@@ -805,47 +714,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'C': 66, 'C#': 0, 'D': 59, 'D#': 0, 'E': 52, 'F': 19, 'F#': 0, 'G': 66, 'G#': 0, 'A': 44, 'A#': 0, 'B': 25}</t>
+          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'C': 55, 'C#': 0, 'D': 67, 'D#': 0, 'E': 91, 'F': 13, 'F#': 0, 'G': 65, 'G#': 0, 'A': 62, 'A#': 0, 'B': 4}</t>
+          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'C': 67, 'C#': 0, 'D': 66, 'D#': 0, 'E': 85, 'F': 10, 'F#': 0, 'G': 69, 'G#': 0, 'A': 55, 'A#': 0, 'B': 22}</t>
+          <t>{'C': 27138, 'C#': 22757, 'D': 28886, 'D#': 24619, 'E': 27493, 'F': 25901, 'F#': 23838, 'G': 29225, 'G#': 21877, 'A': 27314, 'A#': 22786, 'B': 26383}</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 256, 'C#': 3, 'D': 247, 'D#': 0, 'E': 214, 'F': 4, 'F#': 2, 'G': 206, 'G#': 0, 'A': 287, 'A#': 0, 'B': 107}</t>
+          <t>{'C': 52432, 'C#': 1068, 'D': 49650, 'D#': 912, 'E': 55359, 'F': 11314, 'F#': 1268, 'G': 45051, 'G#': 1259, 'A': 48021, 'A#': 719, 'B': 18594}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'C': 183, 'C#': 0, 'D': 260, 'D#': 0, 'E': 264, 'F': 1, 'F#': 0, 'G': 256, 'G#': 0, 'A': 320, 'A#': 0, 'B': 46}</t>
+          <t>{'C': 25712, 'C#': 21412, 'D': 27214, 'D#': 23076, 'E': 26326, 'F': 24545, 'F#': 22647, 'G': 27712, 'G#': 20465, 'A': 26002, 'A#': 21417, 'B': 25073}</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'C': 266, 'C#': 2, 'D': 270, 'D#': 2, 'E': 279, 'F': 55, 'F#': 4, 'G': 255, 'G#': 2, 'A': 238, 'A#': 2, 'B': 76}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>{'C': 502, 'C#': 5, 'D': 533, 'D#': 1, 'E': 490, 'F': 47, 'F#': 50, 'G': 394, 'G#': 0, 'A': 476, 'A#': 0, 'B': 247}</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>{'C': 362, 'C#': 103, 'D': 520, 'D#': 59, 'E': 458, 'F': 61, 'F#': 8, 'G': 393, 'G#': 81, 'A': 447, 'A#': 88, 'B': 77}</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{'C': 515, 'C#': 15, 'D': 573, 'D#': 20, 'E': 568, 'F': 114, 'F#': 11, 'G': 362, 'G#': 10, 'A': 403, 'A#': 8, 'B': 164}</t>
+          <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
         </is>
       </c>
     </row>
@@ -856,31 +750,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>127.89</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>127.89</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>128.47</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6.18</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>127.06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.8</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="12">
@@ -891,146 +776,98 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[22  0 15  0  3  0  0  9  0  7  0 10]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [17  0 16  0 18  1  0  5  0  1  0  1]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 4  0 19  0  7  8  0 10  0  2  0  1]
- [ 1  0  1  0  8  4  0  5  0  0  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 7  0  5  0 14  6  0 18  0 14  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 4  0  3  0  1  0  0 14  0 11  0 10]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 9  0  0  0  0  0  0  3  0  9  0  3]]</t>
+          <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
+ [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
+ [5600 1271 7023  961 5043 1955  685 1689   17 1552  538 2338]
+ [2076 4614 1146 6024 1055 4323 1663  573 1173   17 1198  613]
+ [ 725 1708 5949 1237 6616 1055 4077 2189  572 1564   14 1590]
+ [1363  622 2162 4890 1285 6426  705 4656 1668  559 1390   16]
+ [  18 1234  860 1856 4851  856 6001 1074 3346 1654  359 1541]
+ [1566   15 1362  667 2520 5411 1355 7578  891 5164 1751  728]
+ [ 491 1021   11 1182  565 1957 4143 1081 5203  758 3674 1597]
+ [2397  482 1603   12 1645  668 1911 5758 1011 6250  831 4547]
+ [4131 1485  524 1110   10 1241  574 1871 4218 1049 5643  768]
+ [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[10  0 18  0  8  1  0  3  0 11  0  3]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [21  0 13  0 25  1  0  2  0  2  0  1]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 8  0 30  0 25  6  0 14  0  8  0  0]
- [ 0  0  0  0  7  4  0  2  0  0  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 3  0  4  0 19  1  0 21  0 15  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [11  0  1  0  5  0  0 22  0 23  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 0  0  0  0  2  0  0  1  0  1  0  0]]</t>
+          <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
+ [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
+ [5600 1271 7023  961 5043 1955  685 1689   17 1552  538 2338]
+ [2076 4614 1146 6024 1055 4323 1663  573 1173   17 1198  613]
+ [ 725 1708 5949 1237 6616 1055 4077 2189  572 1564   14 1590]
+ [1363  622 2162 4890 1285 6426  705 4656 1668  559 1390   16]
+ [  18 1234  860 1856 4851  856 6001 1074 3346 1654  359 1541]
+ [1566   15 1362  667 2520 5411 1355 7578  891 5164 1751  728]
+ [ 491 1021   11 1182  565 1957 4143 1081 5203  758 3674 1597]
+ [2397  482 1603   12 1645  668 1911 5758 1011 6250  831 4547]
+ [4131 1485  524 1110   10 1241  574 1871 4218 1049 5643  768]
+ [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[[14  0  9  0 18  2  0  9  0 10  0  4]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 8  0 12  0 14  4  0 14  0 10  0  4]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [10  0 22  0 15  3  0 15  0 13  0  6]
- [ 3  0  3  0  0  0  0  3  0  1  0  0]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [14  0  8  0 15  1  0 15  0  9  0  4]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [11  0 10  0 15  0  0  7  0  9  0  3]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [ 6  0  1  0  7  0  0  4  0  3  0  1]]</t>
+          <t>[[6424  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
+ [ 998 5546 1069 4141 1631  497 1093   12 1137  626 1691 4240]
+ [5600 1271 7161  961 5043 1955  685 1689   17 1552  538 2338]
+ [2076 4614 1146 6096 1054 4323 1663  573 1173   17 1200  614]
+ [ 725 1708 5949 1237 6742 1055 4077 2189  572 1564   14 1590]
+ [1363  622 2162 4890 1285 6504  705 4656 1668  559 1390   16]
+ [  18 1234  860 1856 4851  856 6125 1074 3346 1654  359 1541]
+ [1566   15 1362  668 2520 5411 1355 7707  891 5164 1750  728]
+ [ 491 1021   11 1182  565 1957 4143 1081 5331  758 3674 1597]
+ [2397  482 1603   12 1645  668 1911 5758 1011 6379  831 4548]
+ [4131 1485  524 1110   11 1241  574 1871 4218 1049 5738  768]
+ [1279 3865 2120  485 1390   16 1433  824 1817 5372  932 6778]]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[[68  0 71  0 29  0  0 12  0 45  0 31]
- [ 0  1  0  0  1  0  0  0  0  0  0  0]
- [67  0 75  0 61  1  0 18  0 14  0  9]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [21  0 70  0 43  2  0 42  0 28  0  8]
- [ 0  0  1  0  1  0  1  0  0  1  0  0]
- [ 0  1  0  0  0  0  1  0  0  0  0  0]
- [18  0 14  0 51  0  0 53  0 63  0  6]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [59  1 10  0 23  1  0 68  0 96  0 29]
- [ 0  0  0  0  0  0  0  0  0  0  0  0]
- [22  0  6  0  5  0  0 12  0 37  0 24]]</t>
+          <t>[[13420   100 13275    62  4508   697    10  3470    54  9193   147  7104]
+ [   99   238   137   170    41    69    22     2    50    36   110    56]
+ [15202   138 11474    36 15232   659    82  3135    11  2097    19  1529]
+ [   45   245    98   171    39   218     8     5    47     0    34     0]
+ [ 4611    33 17898    49 13125  3768   299  9737    78  4622     2  1100]
+ [  412    47   562   314  4690  2615    71  1829   144   533    49    44]
+ [    2    11    85     8   394    97   249   202    50   116    12    38]
+ [ 3575     2  2934    15 10882  2416   259 11453    67 12489    15   919]
+ [   19    45    20    44    94   161    46    59   347   225   161    34]
+ [ 9038    28  2316     8  5290   496   159 13073   193 12552    36  4552]
+ [  119   106     3    34     4    54     7    25   169    48   113    26]
+ [ 5720    75   818     0   807    57    56  1855    49  5944    21  3180]]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[[ 33   0  52   0  16   0   0   8   0  60   0  13]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [ 62   0  67   0  92   0   0  17   0  16   0   6]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [  9   0 104   0  47   1   0  72   0  28   0   1]
- [  0   0   0   0   0   0   0   0   0   1   0   0]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [  7   0  19   0  66   0   0  59   0 103   0   2]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [ 64   0  17   0  39   0   0  96   0  85   0  17]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [  8   0   1   0   1   0   0   4   0  25   0   7]]</t>
+          <t>[[6056  769 4563 1837  655 1295   16 1595  585 2384 4385 1477]
+ [ 921 5168 1009 3851 1604  460 1021   12 1060  595 1587 4051]
+ [5310 1200 6649  865 4857 1795  661 1572   11 1480  483 2258]
+ [1976 4291 1008 5713  999 4153 1546  546 1093   15 1115  556]
+ [ 684 1664 5761 1145 6353  970 3947 2112  529 1530   14 1548]
+ [1291  597 2035 4636 1172 6195  670 4470 1584  499 1301   16]
+ [  18 1160  807 1724 4688  817 5724 1063 3168 1622  336 1461]
+ [1506   15 1284  630 2437 5139 1317 7206  842 4867 1685  701]
+ [ 465  951   11 1114  526 1835 3928 1018 4922  699 3431 1504]
+ [2248  471 1481   12 1618  620 1852 5472  965 6070  759 4365]
+ [3951 1407  475 1039   10 1184  540 1771 3911  980 5356  730]
+ [1219 3657 2058  452 1326   16 1370  791 1732 5167  893 6323]]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[[43  1 52  0 49 13  0 49  0 47  0 10]
- [ 0  0  0  0  1  0  0  0  0  0  0  1]
- [47  0 50  1 44 13  1 53  1 50  2  6]
- [ 0  0  1  0  1  0  0  0  0  0  0  0]
- [47  0 59  1 52  9  1 50  0 44  0 16]
- [ 9  0 12  0  9  3  0  7  1  8  0  6]
- [ 1  0  0  0  1  0  0  1  0  1  0  0]
- [53  1 46  0 49  2  2 44  0 39  0 18]
- [ 1  0  0  0  0  0  0  0  0  1  0  0]
- [49  0 32  0 60  9  0 34  0 40  0 14]
- [ 0  0  0  0  0  0  0  1  0  0  0  1]
- [15  0 17  0 11  5  0 16  0  8  0  4]]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[[123   0 117   0  71   4   0  52   0  72   0  63]
- [  0   1   2   0   0   0   1   0   0   0   0   1]
- [127   3 146   1 104   6   8  52   0  50   0  35]
- [  0   0   0   0   1   0   0   0   0   0   0   0]
- [ 60   0 137   0 102  17   8  82   0  64   0  19]
- [  7   0  10   0  18   4   0   5   0   3   0   0]
- [  1   0   9   0   4   0  10   2   0  14   0  10]
- [ 42   0  39   0  97  13   4  82   0 102   0  15]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [ 86   1  52   0  66   3  11  86   0 113   0  56]
- [  0   0   0   0   0   0   0   0   0   0   0   0]
- [ 54   0  21   0  25   0   8  32   0  58   0  48]]</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[[ 58   5 121   5  27   6   0  37   3  79   5  15]
- [ 10  35   3  19   0   8   2   1   8   1  15   0]
- [110   0 163   0 156   2   0  44   0  40   1   4]
- [  5  16   0   8   0  15   0   0   5   0  10   0]
- [ 45   0 151   0  97   0   0 101   0  52   1   9]
- [  0  11   1  14   2  10   2   0  10   1  10   0]
- [  0   1   0   1   0   1   0   1   2   1   1   0]
- [ 30   0  40   0 120   1   2  91   2  99   2   5]
- [  2  12   0   8   2  10   1   0  28   2  15   1]
- [ 90   1  35   0  50   2   1 105   3 134   1  25]
- [  7  22   0   4   0   6   0   1  20   1  27   0]
- [  5   0   5   0   4   0   0  11   0  34   0  18]]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[[133   2 126   3  69  11   2  45   1  74   1  48]
- [  3   2   4   1   2   0   1   0   0   1   0   1]
- [130   1 172   4 139  16   1  40   1  42   1  25]
- [  0   3   4   3   4   3   0   0   2   1   0   0]
- [ 71   2 159   3 138  39   2  77   4  56   0  16]
- [ 10   1   7   1  51  15   1  13   1   9   2   3]
- [  1   0   1   2   1   2   0   2   0   0   1   1]
- [ 42   0  28   2  96  13   3  73   0  89   1  15]
- [  1   4   1   0   0   1   0   1   0   2   0   0]
- [ 78   0  52   0  51   9   0  89   1  91   2  29]
- [  1   0   0   1   1   2   0   0   0   2   0   1]
- [ 44   0  18   0  13   3   1  22   0  36   0  25]]</t>
+          <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
+ [   84   222   124   162    41    56    19     2    44    30    75    56]
+ [13925   118 11360    31 14566   637    79  3027     8  2174    20  1552]
+ [   41   195    90   157    38   195     6     3    43     0    41     0]
+ [ 4671    33 16380    45 12849  3567   288  9349    74  4386     2  1056]
+ [  383    55   590   245  4229  2434    67  1829   141   517    44    52]
+ [    2    11    86    11   372    78   241   197    47   113    12    37]
+ [ 3338     2  2948    18 10215  2203   245 11024    71 11973    17   890]
+ [   19    44    20    44    87   137    36    58   311   214   149    29]
+ [ 8710    27  2231     8  5089   489   160 12069   173 12442    36  4393]
+ [  111    84     3    32     4    59     6    22   145    47   111    26]
+ [ 5419    74   829     0   782    62    54  1789    47  5440    21  3110]]</t>
         </is>
       </c>
     </row>
@@ -1041,31 +878,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.2</v>
+        <v>340.18</v>
       </c>
       <c r="C13" t="n">
-        <v>71.40000000000001</v>
+        <v>340.18</v>
       </c>
       <c r="D13" t="n">
-        <v>74.8</v>
+        <v>341.7</v>
       </c>
       <c r="E13" t="n">
-        <v>265.2</v>
+        <v>338.04</v>
       </c>
       <c r="F13" t="n">
-        <v>266</v>
+        <v>339.86</v>
       </c>
       <c r="G13" t="n">
-        <v>290.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>549</v>
-      </c>
-      <c r="I13" t="n">
-        <v>531.4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>552.6</v>
+        <v>338.96</v>
       </c>
     </row>
     <row r="14">
@@ -1075,31 +903,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.26</v>
+        <v>5.71</v>
       </c>
       <c r="C14" t="n">
-        <v>6.61</v>
+        <v>5.71</v>
       </c>
       <c r="D14" t="n">
-        <v>6.26</v>
+        <v>5.68</v>
       </c>
       <c r="E14" t="n">
-        <v>5.23</v>
+        <v>5.67</v>
       </c>
       <c r="F14" t="n">
-        <v>6.52</v>
+        <v>5.7</v>
       </c>
       <c r="G14" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.14</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="15">
@@ -1109,31 +928,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>2.54</v>
+        <v>3.02</v>
       </c>
       <c r="E15" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.67</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="16">
@@ -1144,57 +954,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[ 32  82 145  10  25   1  10   1   7   0   3   1   5   1   2   0   1   1
-   0   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  8421  71373 132095  22202  36386   2855   8567   2135   7605   1009
+   2266    565   3088    463   1520    382   2864    206    651    134
+    410     59    162     32    254     21     58     11     94     12
+     29      8]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[ 23 118 153  18   9   4   7   0   6   0   4   0   2   1   2   1   3   0
-   0   0   1   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  7837  79798 116454  29947  36441   3713   7349   2534   7551   1134
+   1962    764   3084    588   1314    458   2872    258    565    169
+    410     85    140     23    257     23     52     13     92     19
+     25      6]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[38 18 45 27 54 19 39 10 38 10 19  7 16  2  8  2  9  1  3  2  1  0  2  0
-  0  0  0  0  0  0  1  0]</t>
+          <t>[  8467  71421 132254  22241  36524   2872   8628   2141   7698   1013
+   2283    567   3106    463   1525    385   4195    160    491     95
+    272     42    101     26    161     17     41      9     76     12
+     24      5]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[ 47 295 583 100  97  12  35   1  38   7  17   3  31  13   5   5  24   3
-   2   1   2   0   0   0   1   0   0   0   1   0   0   0]</t>
+          <t>[  6764  66439 123390  20662  34199   2715   8054   1967   7173    939
+   2118    539   2882    438   1423    359   2717    198    616    132
+    381     57    149     30    246     18     57     10     85     11
+     26      8]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[ 10 499 357 110 228   3  21   1  27   3  23   0  11   1   1   1  20   2
-   4   0   4   0   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  7805  67563 126350  20767  34617   2690   8177   1971   7226    941
+   2103    530   2953    445   1465    360   2749    197    594    128
+    397     58    155     27    249     21     53     11     92     12
+     29      8]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[118  84 200  67 214  55 161  41 134  46  95  22  76  17  36  14  35   5
-  11   2   6   1   3   0   2   0   3   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>[ 135  444 1073  168  265   46  115   50  119   28   87   31   61   15
-   32   11   33    5    4    3    3    2    1    3    2    1    1    0
-    1    0    0    0]</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[ 63 541 579 372 426  79  52  63  94  41  27  49  77  32  19  22  54  17
-   3   6  10   3   0   3   4   4   0   1   3   0   0   0]</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[159 781 521 410 271  98  84  60  98  52  41  45  47  20  11  13  29   6
-   4   3   2   0   1   1   0   1   0   1   1   1   0   0]</t>
+          <t>[  9569  63757 105594  27270  32709   3353   6664   2136   6875   1003
+   1723    675   2763    539   1179    403   3812    158    381    115
+    241     52     80     12    156     17     36      6     67     17
+     19      3]</t>
         </is>
       </c>
     </row>
@@ -1206,75 +1009,67 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[  0 140   0  48   0   5   0  88   0   9   0   3   1   1   0  21   0   0
-   3   3   0   0   0   0   0   0   0   1   1   1   0   4   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  6623 109660  45556  69447  12390  16271      5  19181      3   4362
+   2279   4281   1574   1757      3   3709      1   1136    557   1331
+    575    663      1   1450      0    508    249    537    227    291
+      0    717      0    173     81    252     36     72      0    193
+      0     47     36     90     25     24      0    110      0     25
+     23     42      8     10      0     44      0     10      9     24
+      6      8      0    147]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[  1 175   0  81   0   3   0  63   0   3   0   4   2   2   0  10   0   2
-   2   0   0   1   0   1   0   0   1   0   0   0   0   2   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[   100 113854      0  71776      0  16271      0  64724      0   4375
+      0   4281      0   1759      0  16097      0   1136      0   1331
+      0    668      1   1450      0    511    249    537    227    291
+      0   2996      0    173     81    252     36     75      0   1764
+      0     47     36     91     25     26      0    110      0     26
+     23     42      8     10      0    601      0     10      9     24
+      6     10      0    720]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[  0 204   0  78   0  17   0  47   0   7   0   4   0   1   0   9   0   1
-   0   1   1   1   0   1   0   0   0   0   0   0   0   1   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  6657 109813  45631  69679  12422  16332      5  19361      3   4399
+   2311   4362   1592   1778      3   3816      1   1156    577   1371
+    581    673      1   1493      0    516    257    560    232    299
+      0   2336      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[  0 469   0 273   0  15   0 330   0  29   0  21  12   7   0  86   0  12
-   6   5   6   4   0   7   0   1   1   3   3   1   0  34   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  5936 101564  42517  64874  11691  15109      5  17993      3   4111
+   2101   4012   1495   1614      3   3519      1   1058    537   1232
+    537    627      1   1341      0    454    235    512    206    270
+      0    683      0    171     72    246     33     71      0    181
+      0     42     34     84     24     22      0    103      0     23
+     20     42      8     10      0     41      0     10      8     23
+      4      8      0    126]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[  0 404   0 229   0  72   0 428   0  14   0  13  10   7   0 124   0   4
-   5   3   0   0   0   6   0   1   0   0   0   1   0   7   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
+          <t>[  6320 104267  43085  66271  11799  15524      5  18010      1   4185
+   2161   4053   1507   1635      3   3516      1   1099    531   1239
+    550    633      0   1377      0    495    240    509    217    272
+      0    674      0    167     78    228     35     72      0    185
+      0     45     36     86     25     24      0    106      0     23
+     21     38      8     10      0     44      0     10      9     21
+      5      8      0    138]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[  0 581   0 333   0  88   0 218   0  38   0  24   8   8   0  99   0   8
-   2   6   2   2   0   9   0   4   0   3   1   1   0  15   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>[  1 953   0 679   0  79   0 704   0  18   0  23   9  13   0 155   0   3
-   3   9   7   5   1   5   0   4   1   7   1   3   0  62   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[  2 473   0 557   0 347   0 545   0  42   0  64  25  29   0 312   0  14
-   8  20   3  13   0  40   0  10   6   6   2   8   0 123   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0   0
-   0   0   0   0   0   0   0   0   0   0]</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>[   1 1175    0  485    0  125    0  703    0   38    0   39   10   12
-    0   99    0    4    5   11    4    2    0    5    0    6    2    1
-    0    2    0   32    0    0    0    0    0    0    0    0    0    0
-    0    0    0    0    0    0    0    0    0    0    0    0    0    0
-    0    0    0    0    0    0    0    0]</t>
+          <t>[  100 93718     0 62794     0 14440     0 64799     0  3981     1  3869
+  1443  1519     1 14577     0  1040   525  1192   516   608     1  1312
+     0   450   233   506   200   259     0  4103     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0     0     0     0     0     0     0     0     0
+     0     0     0     0]</t>
         </is>
       </c>
     </row>
@@ -1286,47 +1081,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 140, 3: 0, 4: 48, 5: 0, 6: 5, 7: 0, 8: 88, 9: 0, 10: 9, 11: 0, 12: 3, 13: 1, 14: 1, 15: 0, 16: 21, 17: 0, 18: 0, 19: 3, 20: 3, 21: 0, 22: 0, 23: 0, 24: 0, 25: 0, 26: 0, 27: 0, 28: 1, 29: 1, 30: 1, 31: 0, 32: 4}</t>
+          <t>{0: 147, 1: 6623, 2: 109660, 3: 45556, 4: 69447, 5: 12390, 6: 16271, 7: 5, 8: 19181, 9: 3, 10: 4362, 11: 2279, 12: 4281, 13: 1574, 14: 1757, 15: 3, 16: 3709, 17: 1, 18: 1136, 19: 557, 20: 1331, 21: 575, 22: 663, 23: 1, 24: 1450, 25: 0, 26: 508, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 717, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 72, 39: 0, 40: 193, 41: 0, 42: 47, 43: 36, 44: 90, 45: 25, 46: 24, 47: 0, 48: 110, 49: 0, 50: 25, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 8, 63: 0, 64: 147}</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 1, 2: 175, 3: 0, 4: 81, 5: 0, 6: 3, 7: 0, 8: 63, 9: 0, 10: 3, 11: 0, 12: 4, 13: 2, 14: 2, 15: 0, 16: 10, 17: 0, 18: 2, 19: 2, 20: 0, 21: 0, 22: 1, 23: 0, 24: 1, 25: 0, 26: 0, 27: 1, 28: 0, 29: 0, 30: 0, 31: 0, 32: 2}</t>
+          <t>{0: 720, 1: 100, 2: 113854, 3: 0, 4: 71776, 5: 0, 6: 16271, 7: 0, 8: 64724, 9: 0, 10: 4375, 11: 0, 12: 4281, 13: 0, 14: 1759, 15: 0, 16: 16097, 17: 0, 18: 1136, 19: 0, 20: 1331, 21: 0, 22: 668, 23: 1, 24: 1450, 25: 0, 26: 511, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 2996, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 75, 39: 0, 40: 1764, 41: 0, 42: 47, 43: 36, 44: 91, 45: 25, 46: 26, 47: 0, 48: 110, 49: 0, 50: 26, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 601, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 10, 63: 0, 64: 720}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 204, 3: 0, 4: 78, 5: 0, 6: 17, 7: 0, 8: 47, 9: 0, 10: 7, 11: 0, 12: 4, 13: 0, 14: 1, 15: 0, 16: 9, 17: 0, 18: 1, 19: 0, 20: 1, 21: 1, 22: 1, 23: 0, 24: 1, 25: 0, 26: 0, 27: 0, 28: 0, 29: 0, 30: 0, 31: 0, 32: 1}</t>
+          <t>{0: 0, 1: 6657, 2: 109813, 3: 45631, 4: 69679, 5: 12422, 6: 16332, 7: 5, 8: 19361, 9: 3, 10: 4399, 11: 2311, 12: 4362, 13: 1592, 14: 1778, 15: 3, 16: 3816, 17: 1, 18: 1156, 19: 577, 20: 1371, 21: 581, 22: 673, 23: 1, 24: 1493, 25: 0, 26: 516, 27: 257, 28: 560, 29: 232, 30: 299, 31: 0, 32: 2336}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 469, 3: 0, 4: 273, 5: 0, 6: 15, 7: 0, 8: 330, 9: 0, 10: 29, 11: 0, 12: 21, 13: 12, 14: 7, 15: 0, 16: 86, 17: 0, 18: 12, 19: 6, 20: 5, 21: 6, 22: 4, 23: 0, 24: 7, 25: 0, 26: 1, 27: 1, 28: 3, 29: 3, 30: 1, 31: 0, 32: 34}</t>
+          <t>{0: 126, 1: 5936, 2: 101564, 3: 42517, 4: 64874, 5: 11691, 6: 15109, 7: 5, 8: 17993, 9: 3, 10: 4111, 11: 2101, 12: 4012, 13: 1495, 14: 1614, 15: 3, 16: 3519, 17: 1, 18: 1058, 19: 537, 20: 1232, 21: 537, 22: 627, 23: 1, 24: 1341, 25: 0, 26: 454, 27: 235, 28: 512, 29: 206, 30: 270, 31: 0, 32: 683, 33: 0, 34: 171, 35: 72, 36: 246, 37: 33, 38: 71, 39: 0, 40: 181, 41: 0, 42: 42, 43: 34, 44: 84, 45: 24, 46: 22, 47: 0, 48: 103, 49: 0, 50: 23, 51: 20, 52: 42, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 23, 61: 4, 62: 8, 63: 0, 64: 126}</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 404, 3: 0, 4: 229, 5: 0, 6: 72, 7: 0, 8: 428, 9: 0, 10: 14, 11: 0, 12: 13, 13: 10, 14: 7, 15: 0, 16: 124, 17: 0, 18: 4, 19: 5, 20: 3, 21: 0, 22: 0, 23: 0, 24: 6, 25: 0, 26: 1, 27: 0, 28: 0, 29: 0, 30: 1, 31: 0, 32: 7}</t>
+          <t>{0: 138, 1: 6320, 2: 104267, 3: 43085, 4: 66271, 5: 11799, 6: 15524, 7: 5, 8: 18010, 9: 1, 10: 4185, 11: 2161, 12: 4053, 13: 1507, 14: 1635, 15: 3, 16: 3516, 17: 1, 18: 1099, 19: 531, 20: 1239, 21: 550, 22: 633, 23: 0, 24: 1377, 25: 0, 26: 495, 27: 240, 28: 509, 29: 217, 30: 272, 31: 0, 32: 674, 33: 0, 34: 167, 35: 78, 36: 228, 37: 35, 38: 72, 39: 0, 40: 185, 41: 0, 42: 45, 43: 36, 44: 86, 45: 25, 46: 24, 47: 0, 48: 106, 49: 0, 50: 23, 51: 21, 52: 38, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 21, 61: 5, 62: 8, 63: 0, 64: 138}</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{0: 0, 1: 0, 2: 581, 3: 0, 4: 333, 5: 0, 6: 88, 7: 0, 8: 218, 9: 0, 10: 38, 11: 0, 12: 24, 13: 8, 14: 8, 15: 0, 16: 99, 17: 0, 18: 8, 19: 2, 20: 6, 21: 2, 22: 2, 23: 0, 24: 9, 25: 0, 26: 4, 27: 0, 28: 3, 29: 1, 30: 1, 31: 0, 32: 15}</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>{0: 0, 1: 1, 2: 953, 3: 0, 4: 679, 5: 0, 6: 79, 7: 0, 8: 704, 9: 0, 10: 18, 11: 0, 12: 23, 13: 9, 14: 13, 15: 0, 16: 155, 17: 0, 18: 3, 19: 3, 20: 9, 21: 7, 22: 5, 23: 1, 24: 5, 25: 0, 26: 4, 27: 1, 28: 7, 29: 1, 30: 3, 31: 0, 32: 62}</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>{0: 0, 1: 2, 2: 473, 3: 0, 4: 557, 5: 0, 6: 347, 7: 0, 8: 545, 9: 0, 10: 42, 11: 0, 12: 64, 13: 25, 14: 29, 15: 0, 16: 312, 17: 0, 18: 14, 19: 8, 20: 20, 21: 3, 22: 13, 23: 0, 24: 40, 25: 0, 26: 10, 27: 6, 28: 6, 29: 2, 30: 8, 31: 0, 32: 123}</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>{0: 0, 1: 1, 2: 1175, 3: 0, 4: 485, 5: 0, 6: 125, 7: 0, 8: 703, 9: 0, 10: 38, 11: 0, 12: 39, 13: 10, 14: 12, 15: 0, 16: 99, 17: 0, 18: 4, 19: 5, 20: 11, 21: 4, 22: 2, 23: 0, 24: 5, 25: 0, 26: 6, 27: 2, 28: 1, 29: 0, 30: 2, 31: 0, 32: 32}</t>
+          <t>{0: 0, 1: 100, 2: 93718, 3: 0, 4: 62794, 5: 0, 6: 14440, 7: 0, 8: 64799, 9: 0, 10: 3981, 11: 1, 12: 3869, 13: 1443, 14: 1519, 15: 1, 16: 14577, 17: 0, 18: 1040, 19: 525, 20: 1192, 21: 516, 22: 608, 23: 1, 24: 1312, 25: 0, 26: 450, 27: 233, 28: 506, 29: 200, 30: 259, 31: 0, 32: 4103}</t>
         </is>
       </c>
     </row>
@@ -1338,101 +1118,68 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[[ 0  0  0 ...  0  0  0]
- [ 0 83  0 ...  1  0  2]
- [ 0  0  0 ...  0  0  0]
+          <t>[[  188  2598  1236 ...     1     0     0]
+ [ 3226 59183 14199 ...     2     0     1]
+ [  191 13632 12845 ...     0     0     4]
  ...
- [ 0  1  0 ...  0  0  0]
- [ 0  0  0 ...  0  0  0]
- [ 0  2  0 ...  0  0  0]]</t>
+ [    0     0     1 ...     0     0     0]
+ [    0     0     0 ...     0     0     0]
+ [    1     4     5 ...     1     0    15]]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[[ 0  1  0 ...  0  0  0]
- [ 0 96  0 ...  0  0  1]
- [ 0  0  0 ...  0  0  0]
+          <t>[[    0    40     0 ...     0     0     0]
+ [    3 62440     0 ...     3     0    64]
+ [    0     0     0 ...     0     0     0]
  ...
- [ 0  0  0 ...  0  0  0]
- [ 0  0  0 ...  0  0  0]
- [ 0  1  0 ...  0  0  0]]</t>
+ [    0     1     0 ...     0     0     0]
+ [    0     0     0 ...     0     0     0]
+ [    1   202     0 ...     1     0    21]]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 132   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
+          <t>[[  188  2599  1239 ...     0     0    20]
+ [ 3228 59237 14219 ...    61     0   255]
+ [  191 13646 12865 ...    39     0   176]
  ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0   1   0 ...   0   0   0]]</t>
+ [    4    52    39 ...     0     0     3]
+ [    0     0     0 ...     0     0     0]
+ [   35   278   157 ...     9     0   167]]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 190   0 ...   1   0  11]
- [  0   0   0 ...   0   0   0]
+          <t>[[   42  2354  1073 ...     1     0     0]
+ [ 2924 54289 13331 ...     2     0     0]
+ [  183 12787 11954 ...     0     0     4]
  ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0  12   0 ...   0   0   1]]</t>
+ [    0     0     1 ...     0     0     0]
+ [    0     0     0 ...     0     0     0]
+ [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 272   0 ...   0   0   2]
- [  0   0   0 ...   0   0   0]
+          <t>[[  184  2493  1167 ...     1     0     0]
+ [ 3116 56372 13411 ...     2     0     1]
+ [  178 12832 12195 ...     0     0     4]
  ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0   1   0 ...   0   0   0]]</t>
+ [    0     0     1 ...     0     0     0]
+ [    0     0     0 ...     0     0     0]
+ [    1     4     5 ...     1     0    15]]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 279   0 ...   0   0   4]
- [  0   0   0 ...   0   0   0]
+          <t>[[    0    28     0 ...     0     0     3]
+ [    0 49297     0 ...    51     0   769]
+ [    0     0     0 ...     0     0     0]
  ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0   8   0 ...   0   0   0]]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 568   0 ...   0   0  13]
- [  0   0   0 ...   0   0   0]
- ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0   9   0 ...   0   0   4]]</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 152   0 ...   0   0  17]
- [  0   0   0 ...   0   0   0]
- ...
- [  0   0   0 ...   0   0   1]
- [  0   0   0 ...   0   0   0]
- [  0  13   0 ...   0   0  15]]</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>[[  0   0   0 ...   0   0   0]
- [  0 662   0 ...   0   0   5]
- [  0   0   0 ...   0   0   0]
- ...
- [  0   0   0 ...   0   0   0]
- [  0   0   0 ...   0   0   0]
- [  0   6   0 ...   0   0   0]]</t>
+ [    0    46     0 ...     0     0     4]
+ [    0     0     0 ...     0     0     0]
+ [   30   879     0 ...    13     0   204]]</t>
         </is>
       </c>
     </row>

--- a/0_data/8_predictions/original_data_evaluation.xlsx
+++ b/0_data/8_predictions/original_data_evaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,160 +468,185 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>pitch_count_seq</t>
+          <t>mean_pitch</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.45</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.45</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.45</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>11.31</v>
+        <v>71.69</v>
       </c>
       <c r="F2" t="n">
-        <v>11.19</v>
+        <v>16.1</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pitch_count_bar</t>
+          <t>pitch_count_seq</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.44</v>
+        <v>11.45</v>
       </c>
       <c r="C3" t="n">
-        <v>3.44</v>
+        <v>11.45</v>
       </c>
       <c r="D3" t="n">
-        <v>3.43</v>
+        <v>11.45</v>
       </c>
       <c r="E3" t="n">
-        <v>3.44</v>
+        <v>11.31</v>
       </c>
       <c r="F3" t="n">
-        <v>3.43</v>
+        <v>11.19</v>
       </c>
       <c r="G3" t="n">
-        <v>3.41</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>pitch_range_seq</t>
+          <t>pitch_count_bar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.49</v>
+        <v>3.44</v>
       </c>
       <c r="C4" t="n">
-        <v>18.49</v>
+        <v>3.44</v>
       </c>
       <c r="D4" t="n">
-        <v>18.49</v>
+        <v>3.43</v>
       </c>
       <c r="E4" t="n">
-        <v>18.5</v>
+        <v>3.44</v>
       </c>
       <c r="F4" t="n">
-        <v>17.99</v>
+        <v>3.43</v>
       </c>
       <c r="G4" t="n">
-        <v>17.98</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>pitch_range_bar</t>
+          <t>pitch_range_seq</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.05</v>
+        <v>18.49</v>
       </c>
       <c r="C5" t="n">
-        <v>6.05</v>
+        <v>18.49</v>
       </c>
       <c r="D5" t="n">
-        <v>6.03</v>
+        <v>18.49</v>
       </c>
       <c r="E5" t="n">
-        <v>6.05</v>
+        <v>18.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6.03</v>
+        <v>17.99</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>17.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pitch_intervals_avg</t>
+          <t>pitch_range_bar</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01</v>
+        <v>6.05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>6.05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>6.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>6.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>6.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>pitch_intervals_avg_abs</t>
+          <t>pitch_intervals_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4</v>
+        <v>0.01</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>2.38</v>
+        <v>0.01</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>2.39</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2.39</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>pitch_intervals_avg_abs</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>pitch_intervals_hist</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
    1572    126   2557     12    191     81     18     64      0      8
@@ -629,7 +654,7 @@
       0      0      0      0      0      0]</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
    1572    126   2557     12    191     81     18     64      0      8
@@ -637,7 +662,7 @@
       0      0      0      0      0      0]</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>[ 73971  24890 109687  42472  11621  20319    175  12738   2895   3902
    1572    126   2557     12    191     81     18     64      0      8
@@ -645,7 +670,7 @@
       0      0      0      0      0      0]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>[ 66573  23161 102725  39778  10810  18821    162  12048   2743   3687
    1472    106   2361     12    174     67     17     62      0      8
@@ -653,7 +678,7 @@
       0      0      0      0      0      0]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>[ 69361  23377 104381  40565  10902  19328    166  12021   2748   3620
    1455    121   2374      9    183     71     14     42      0      4
@@ -661,7 +686,7 @@
       0      0      0      0      0      0]</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[65103 21371 96282 38016 10573 18469   172 11444  2615  3425  1377   106
   2142     9   166    57    13    40     0     4     0     0     0     0
@@ -669,112 +694,112 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>pitch_class_hist_numbers</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[27138 22757 28886 24619 27493 25901 23838 29225 21877 27314 22786 26383]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[52432  1068 49650   912 55359 11314  1268 45051  1259 48021   719 18594]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[25712 21412 27214 23076 26326 24545 22647 27712 20465 26002 21417 25073]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>pitch_class_hist_pitches</t>
+          <t>pitch_class_hist_numbers</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+          <t>[26990 22659 28748 24545 27367 25823 23714 29096 21749 27184 22690 26274]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'C': 27138, 'C#': 22757, 'D': 28886, 'D#': 24619, 'E': 27493, 'F': 25901, 'F#': 23838, 'G': 29225, 'G#': 21877, 'A': 27314, 'A#': 22786, 'B': 26383}</t>
+          <t>[27138 22757 28886 24619 27493 25901 23838 29225 21877 27314 22786 26383]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 52432, 'C#': 1068, 'D': 49650, 'D#': 912, 'E': 55359, 'F': 11314, 'F#': 1268, 'G': 45051, 'G#': 1259, 'A': 48021, 'A#': 719, 'B': 18594}</t>
+          <t>[52432  1068 49650   912 55359 11314  1268 45051  1259 48021   719 18594]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'C': 25712, 'C#': 21412, 'D': 27214, 'D#': 23076, 'E': 26326, 'F': 24545, 'F#': 22647, 'G': 27712, 'G#': 20465, 'A': 26002, 'A#': 21417, 'B': 25073}</t>
+          <t>[25712 21412 27214 23076 26326 24545 22647 27712 20465 26002 21417 25073]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
+          <t>[49849   948 47530   811 52734 10590  1211 42969  1152 46096   659 17638]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>crooked_pitch_count</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>127.89</v>
-      </c>
-      <c r="C11" t="n">
-        <v>127.89</v>
-      </c>
-      <c r="D11" t="n">
-        <v>128.47</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="F11" t="n">
-        <v>127.06</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.95</v>
+          <t>pitch_class_hist_pitches</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'C': 26990, 'C#': 22659, 'D': 28748, 'D#': 24545, 'E': 27367, 'F': 25823, 'F#': 23714, 'G': 29096, 'G#': 21749, 'A': 27184, 'A#': 22690, 'B': 26274}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'C': 27138, 'C#': 22757, 'D': 28886, 'D#': 24619, 'E': 27493, 'F': 25901, 'F#': 23838, 'G': 29225, 'G#': 21877, 'A': 27314, 'A#': 22786, 'B': 26383}</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'C': 52432, 'C#': 1068, 'D': 49650, 'D#': 912, 'E': 55359, 'F': 11314, 'F#': 1268, 'G': 45051, 'G#': 1259, 'A': 48021, 'A#': 719, 'B': 18594}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'C': 25712, 'C#': 21412, 'D': 27214, 'D#': 23076, 'E': 26326, 'F': 24545, 'F#': 22647, 'G': 27712, 'G#': 20465, 'A': 26002, 'A#': 21417, 'B': 25073}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'C': 49849, 'C#': 948, 'D': 47530, 'D#': 811, 'E': 52734, 'F': 10590, 'F#': 1211, 'G': 42969, 'G#': 1152, 'A': 46096, 'A#': 659, 'B': 17638}</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>crooked_pitch_count</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>127.89</v>
+      </c>
+      <c r="C12" t="n">
+        <v>127.89</v>
+      </c>
+      <c r="D12" t="n">
+        <v>128.47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>127.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>pitch_class_transition_matrix</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
  [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
@@ -790,7 +815,7 @@
  [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>[[6276  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
  [ 998 5448 1069 4141 1631  497 1093   12 1137  626 1691 4240]
@@ -806,7 +831,7 @@
  [1279 3865 2120  484 1390   16 1433  824 1817 5371  932 6671]]</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>[[6424  829 4841 1918  674 1346   16 1704  626 2524 4597 1536]
  [ 998 5546 1069 4141 1631  497 1093   12 1137  626 1691 4240]
@@ -822,7 +847,7 @@
  [1279 3865 2120  485 1390   16 1433  824 1817 5372  932 6778]]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>[[13420   100 13275    62  4508   697    10  3470    54  9193   147  7104]
  [   99   238   137   170    41    69    22     2    50    36   110    56]
@@ -838,7 +863,7 @@
  [ 5720    75   818     0   807    57    56  1855    49  5944    21  3180]]</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>[[6056  769 4563 1837  655 1295   16 1595  585 2384 4385 1477]
  [ 921 5168 1009 3851 1604  460 1021   12 1060  595 1587 4051]
@@ -854,7 +879,7 @@
  [1219 3657 2058  452 1326   16 1370  791 1732 5167  893 6323]]</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[[12984    83 12841    57  4222   664    10  3407    48  8602   131  6425]
  [   84   222   124   162    41    56    19     2    44    30    75    56]
@@ -871,88 +896,88 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>note_count_seq</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>340.18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>340.18</v>
-      </c>
-      <c r="D13" t="n">
-        <v>341.7</v>
-      </c>
-      <c r="E13" t="n">
-        <v>338.04</v>
-      </c>
-      <c r="F13" t="n">
-        <v>339.86</v>
-      </c>
-      <c r="G13" t="n">
-        <v>338.96</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>note_count_bar</t>
+          <t>note_count_seq</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.71</v>
+        <v>340.18</v>
       </c>
       <c r="C14" t="n">
-        <v>5.71</v>
+        <v>340.18</v>
       </c>
       <c r="D14" t="n">
-        <v>5.68</v>
+        <v>341.7</v>
       </c>
       <c r="E14" t="n">
-        <v>5.67</v>
+        <v>338.04</v>
       </c>
       <c r="F14" t="n">
-        <v>5.7</v>
+        <v>339.86</v>
       </c>
       <c r="G14" t="n">
-        <v>5.64</v>
+        <v>338.96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>onset_intervals_avg</t>
+          <t>note_count_bar</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5.71</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5.71</v>
       </c>
       <c r="D15" t="n">
-        <v>3.02</v>
+        <v>5.68</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>5.67</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.02</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>onset_intervals_avg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>onset_intervals_hist</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>[  8421  71373 132095  22202  36386   2855   8567   2135   7605   1009
    2266    565   3088    463   1520    382   2864    206    651    134
@@ -960,7 +985,7 @@
      29      8]</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>[  7837  79798 116454  29947  36441   3713   7349   2534   7551   1134
    1962    764   3084    588   1314    458   2872    258    565    169
@@ -968,7 +993,7 @@
      25      6]</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>[  8467  71421 132254  22241  36524   2872   8628   2141   7698   1013
    2283    567   3106    463   1525    385   4195    160    491     95
@@ -976,7 +1001,7 @@
      24      5]</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>[  6764  66439 123390  20662  34199   2715   8054   1967   7173    939
    2118    539   2882    438   1423    359   2717    198    616    132
@@ -984,7 +1009,7 @@
      26      8]</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>[  7805  67563 126350  20767  34617   2690   8177   1971   7226    941
    2103    530   2953    445   1465    360   2749    197    594    128
@@ -992,7 +1017,7 @@
      29      8]</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[  9569  63757 105594  27270  32709   3353   6664   2136   6875   1003
    1723    675   2763    539   1179    403   3812    158    381    115
@@ -1001,13 +1026,38 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>mean_duration</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>132.84</v>
+      </c>
+      <c r="C18" t="n">
+        <v>134.56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>132.84</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40.84</v>
+      </c>
+      <c r="G18" t="n">
+        <v>42.34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>note_length_hist_numbers</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>[  6623 109660  45556  69447  12390  16271      5  19181      3   4362
    2279   4281   1574   1757      3   3709      1   1136    557   1331
@@ -1018,7 +1068,7 @@
       6      8      0    147]</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>[   100 113854      0  71776      0  16271      0  64724      0   4375
       0   4281      0   1759      0  16097      0   1136      0   1331
@@ -1029,7 +1079,7 @@
       6     10      0    720]</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>[  6657 109813  45631  69679  12422  16332      5  19361      3   4399
    2311   4362   1592   1778      3   3816      1   1156    577   1371
@@ -1040,7 +1090,7 @@
       0      0      0      0]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>[  5936 101564  42517  64874  11691  15109      5  17993      3   4111
    2101   4012   1495   1614      3   3519      1   1058    537   1232
@@ -1051,7 +1101,7 @@
       4      8      0    126]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>[  6320 104267  43085  66271  11799  15524      5  18010      1   4185
    2161   4053   1507   1635      3   3516      1   1099    531   1239
@@ -1062,7 +1112,7 @@
       5      8      0    138]</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[  100 93718     0 62794     0 14440     0 64799     0  3981     1  3869
   1443  1519     1 14577     0  1040   525  1192   516   608     1  1312
@@ -1073,50 +1123,50 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>note_length_hist_bins</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>{0: 147, 1: 6623, 2: 109660, 3: 45556, 4: 69447, 5: 12390, 6: 16271, 7: 5, 8: 19181, 9: 3, 10: 4362, 11: 2279, 12: 4281, 13: 1574, 14: 1757, 15: 3, 16: 3709, 17: 1, 18: 1136, 19: 557, 20: 1331, 21: 575, 22: 663, 23: 1, 24: 1450, 25: 0, 26: 508, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 717, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 72, 39: 0, 40: 193, 41: 0, 42: 47, 43: 36, 44: 90, 45: 25, 46: 24, 47: 0, 48: 110, 49: 0, 50: 25, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 8, 63: 0, 64: 147}</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>{0: 720, 1: 100, 2: 113854, 3: 0, 4: 71776, 5: 0, 6: 16271, 7: 0, 8: 64724, 9: 0, 10: 4375, 11: 0, 12: 4281, 13: 0, 14: 1759, 15: 0, 16: 16097, 17: 0, 18: 1136, 19: 0, 20: 1331, 21: 0, 22: 668, 23: 1, 24: 1450, 25: 0, 26: 511, 27: 249, 28: 537, 29: 227, 30: 291, 31: 0, 32: 2996, 33: 0, 34: 173, 35: 81, 36: 252, 37: 36, 38: 75, 39: 0, 40: 1764, 41: 0, 42: 47, 43: 36, 44: 91, 45: 25, 46: 26, 47: 0, 48: 110, 49: 0, 50: 26, 51: 23, 52: 42, 53: 8, 54: 10, 55: 0, 56: 601, 57: 0, 58: 10, 59: 9, 60: 24, 61: 6, 62: 10, 63: 0, 64: 720}</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 6657, 2: 109813, 3: 45631, 4: 69679, 5: 12422, 6: 16332, 7: 5, 8: 19361, 9: 3, 10: 4399, 11: 2311, 12: 4362, 13: 1592, 14: 1778, 15: 3, 16: 3816, 17: 1, 18: 1156, 19: 577, 20: 1371, 21: 581, 22: 673, 23: 1, 24: 1493, 25: 0, 26: 516, 27: 257, 28: 560, 29: 232, 30: 299, 31: 0, 32: 2336}</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>{0: 126, 1: 5936, 2: 101564, 3: 42517, 4: 64874, 5: 11691, 6: 15109, 7: 5, 8: 17993, 9: 3, 10: 4111, 11: 2101, 12: 4012, 13: 1495, 14: 1614, 15: 3, 16: 3519, 17: 1, 18: 1058, 19: 537, 20: 1232, 21: 537, 22: 627, 23: 1, 24: 1341, 25: 0, 26: 454, 27: 235, 28: 512, 29: 206, 30: 270, 31: 0, 32: 683, 33: 0, 34: 171, 35: 72, 36: 246, 37: 33, 38: 71, 39: 0, 40: 181, 41: 0, 42: 42, 43: 34, 44: 84, 45: 24, 46: 22, 47: 0, 48: 103, 49: 0, 50: 23, 51: 20, 52: 42, 53: 8, 54: 10, 55: 0, 56: 41, 57: 0, 58: 10, 59: 8, 60: 23, 61: 4, 62: 8, 63: 0, 64: 126}</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>{0: 138, 1: 6320, 2: 104267, 3: 43085, 4: 66271, 5: 11799, 6: 15524, 7: 5, 8: 18010, 9: 1, 10: 4185, 11: 2161, 12: 4053, 13: 1507, 14: 1635, 15: 3, 16: 3516, 17: 1, 18: 1099, 19: 531, 20: 1239, 21: 550, 22: 633, 23: 0, 24: 1377, 25: 0, 26: 495, 27: 240, 28: 509, 29: 217, 30: 272, 31: 0, 32: 674, 33: 0, 34: 167, 35: 78, 36: 228, 37: 35, 38: 72, 39: 0, 40: 185, 41: 0, 42: 45, 43: 36, 44: 86, 45: 25, 46: 24, 47: 0, 48: 106, 49: 0, 50: 23, 51: 21, 52: 38, 53: 8, 54: 10, 55: 0, 56: 44, 57: 0, 58: 10, 59: 9, 60: 21, 61: 5, 62: 8, 63: 0, 64: 138}</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>{0: 0, 1: 100, 2: 93718, 3: 0, 4: 62794, 5: 0, 6: 14440, 7: 0, 8: 64799, 9: 0, 10: 3981, 11: 1, 12: 3869, 13: 1443, 14: 1519, 15: 1, 16: 14577, 17: 0, 18: 1040, 19: 525, 20: 1192, 21: 516, 22: 608, 23: 1, 24: 1312, 25: 0, 26: 450, 27: 233, 28: 506, 29: 200, 30: 259, 31: 0, 32: 4103}</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>note_length_transition_matrix</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>[[  188  2598  1236 ...     1     0     0]
  [ 3226 59183 14199 ...     2     0     1]
@@ -1127,7 +1177,7 @@
  [    1     4     5 ...     1     0    15]]</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>[[    0    40     0 ...     0     0     0]
  [    3 62440     0 ...     3     0    64]
@@ -1138,7 +1188,7 @@
  [    1   202     0 ...     1     0    21]]</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>[[  188  2599  1239 ...     0     0    20]
  [ 3228 59237 14219 ...    61     0   255]
@@ -1149,7 +1199,7 @@
  [   35   278   157 ...     9     0   167]]</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>[[   42  2354  1073 ...     1     0     0]
  [ 2924 54289 13331 ...     2     0     0]
@@ -1160,7 +1210,7 @@
  [    1     2     5 ...     1     0    12]]</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>[[  184  2493  1167 ...     1     0     0]
  [ 3116 56372 13411 ...     2     0     1]
@@ -1171,7 +1221,7 @@
  [    1     4     5 ...     1     0    15]]</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[[    0    28     0 ...     0     0     3]
  [    0 49297     0 ...    51     0   769]

--- a/0_data/8_predictions/original_data_evaluation.xlsx
+++ b/0_data/8_predictions/original_data_evaluation.xlsx
@@ -651,7 +651,16 @@
           <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
    1572    126   2557     12    191     81     18     64      0      8
       2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0]</t>
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -659,7 +668,16 @@
           <t>[ 72599  24891 109685  42472  11620  20318    174  12737   2893   3903
    1572    126   2557     12    191     81     18     64      0      8
       2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0]</t>
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -667,7 +685,16 @@
           <t>[ 73971  24890 109687  42472  11621  20319    175  12738   2895   3902
    1572    126   2557     12    191     81     18     64      0      8
       2      2      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0]</t>
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +702,16 @@
           <t>[ 66573  23161 102725  39778  10810  18821    162  12048   2743   3687
    1472    106   2361     12    174     67     17     62      0      8
       2      1      2      3      3      0      0      1      3      0
-      0      0      0      0      0      0]</t>
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0      0      0
+      0      0      0      0      0      0      0      0]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">

--- a/0_data/8_predictions/original_data_evaluation.xlsx
+++ b/0_data/8_predictions/original_data_evaluation.xlsx
@@ -1069,22 +1069,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.84</v>
+        <v>4.84</v>
       </c>
       <c r="C18" t="n">
-        <v>134.56</v>
+        <v>6.56</v>
       </c>
       <c r="D18" t="n">
-        <v>132.8</v>
+        <v>4.8</v>
       </c>
       <c r="E18" t="n">
-        <v>132.84</v>
+        <v>4.84</v>
       </c>
       <c r="F18" t="n">
-        <v>40.84</v>
+        <v>4.84</v>
       </c>
       <c r="G18" t="n">
-        <v>42.34</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="19">
